--- a/shoppingCart.xlsx
+++ b/shoppingCart.xlsx
@@ -92,12 +92,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,10 +139,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,6 +166,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Заголовок" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -165,26 +237,26 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -216,7 +288,7 @@
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
